--- a/biology/Botanique/Pilosocereus/Pilosocereus.xlsx
+++ b/biology/Botanique/Pilosocereus/Pilosocereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilosocereus est un genre de cactus.
 Comme tous les membres de la famille des cactus, le genre est originaire d'Amérique.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pilosocereus albisummus Person|P.J.Braun &amp; Esteves
 Pilosocereus alensis Person|(F.A.C.Weber) Byles &amp; G.D.Rowley
@@ -531,12 +545,12 @@
 Pilosocereus flavipulvinatus Person|(Buining &amp; Brederoo) F.Ritter
 Pilosocereus flexibilispinus Person|P.J.Braun &amp; Esteves
 Pilosocereus floccosus Person|Byles &amp; G.D.Rowley
-Pilosocereus frewenii Person|Zappi &amp; N.P.Taylor[2]
+Pilosocereus frewenii Person|Zappi &amp; N.P.Taylor
 Pilosocereus fulvilanatus Person|(Buining &amp; Brederoo) F.Ritter
 Pilosocereus glaucochrous Person|(Werderm.) Byles &amp; G.D.Rowley
 Pilosocereus goianus Person|P.J.Braun &amp; Esteves
 Pilosocereus gounellei Person|(F.A.C.Weber) Byles &amp; G.D.Rowley
-Pilosocereus hermii Person|P.J.Braun, Esteves &amp; Hofacker[3]
+Pilosocereus hermii Person|P.J.Braun, Esteves &amp; Hofacker
 Pilosocereus lanuginosus Person|(L.) Byles &amp; G.D.Rowley
 Pilosocereus leucocephalus Person|(Poselg.) Byles &amp; G.D.Rowley
 Pilosocereus machrisii Person|(E.Y.Dawson) Backeb.
@@ -549,7 +563,7 @@
 Pilosocereus pentaedrophorus Person|(Cels) Byles &amp; G.D.Rowley
 Pilosocereus piauhyensis Person|(Gürke) Byles &amp; G.D.Rowley
 Pilosocereus polygonus Person|(Lam.) Byles &amp; G.D.Rowley
-Pilosocereus pseudosuperfloccosus Person|P.J.Braun &amp; Esteves[4]
+Pilosocereus pseudosuperfloccosus Person|P.J.Braun &amp; Esteves
 Pilosocereus purpusii Person|(Britton &amp; Rose) Byles &amp; G.D.Rowley
 Pilosocereus quadricentralis Person|(E.Y.Dawson) Backeb.
 Pilosocereus royenii Person|(L.) Byles &amp; G.D.Rowley
